--- a/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
+++ b/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Dimension</t>
   </si>
@@ -113,55 +113,67 @@
     <t>Order</t>
   </si>
   <si>
+    <t>CL_FI_COUNTRY_GROUPS</t>
+  </si>
+  <si>
+    <t>CL_FI_AREA_GROUPS</t>
+  </si>
+  <si>
+    <t>CL_FI_SPECIES_GROUPS</t>
+  </si>
+  <si>
+    <t>3ALPHA_CODE</t>
+  </si>
+  <si>
+    <t>Aquaculture Environment</t>
+  </si>
+  <si>
+    <t>PRODUCTION_AREA</t>
+  </si>
+  <si>
+    <t>FAO major fishing area</t>
+  </si>
+  <si>
+    <t>Country or territory</t>
+  </si>
+  <si>
+    <t>ASFIS species</t>
+  </si>
+  <si>
+    <t>Value (USD 1000)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>FAO statistical symbol</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CL_FI_UNIT</t>
+  </si>
+  <si>
+    <t>Quantity unit</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>QUANTITY_UNIT</t>
+  </si>
+  <si>
     <t>ENVIRONMENT</t>
   </si>
   <si>
-    <t>CL_FI_COUNTRY_GROUPS</t>
-  </si>
-  <si>
-    <t>CL_FI_AREA_GROUPS</t>
-  </si>
-  <si>
-    <t>CL_FI_SPECIES_GROUPS</t>
-  </si>
-  <si>
-    <t>3ALPHA_CODE</t>
-  </si>
-  <si>
-    <t>CL_FI_PRODUCTION_SOURCE</t>
-  </si>
-  <si>
-    <t>Aquaculture Environment</t>
-  </si>
-  <si>
-    <t>PRODUCTION_AREA</t>
-  </si>
-  <si>
-    <t>FAO major fishing area</t>
-  </si>
-  <si>
-    <t>Country or territory</t>
-  </si>
-  <si>
-    <t>ASFIS species</t>
-  </si>
-  <si>
-    <t>Value (USD 1000)</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>CL_FI_ENVIRONMENT</t>
   </si>
 </sst>
 </file>
@@ -570,16 +582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="29" style="6" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -610,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -625,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,19 +651,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,19 +671,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,13 +697,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +719,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,67 +727,87 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
+++ b/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
@@ -116,9 +116,6 @@
     <t>CL_FI_COUNTRY_GROUPS</t>
   </si>
   <si>
-    <t>CL_FI_AREA_GROUPS</t>
-  </si>
-  <si>
     <t>CL_FI_SPECIES_GROUPS</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>CL_FI_ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>CL_FI_WATERAREA_GROUPS</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,19 +651,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,19 +671,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,13 +697,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,19 +727,19 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,15 +784,15 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
+++ b/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2016\FIPS\SDMX\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Dimension</t>
   </si>
   <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -50,30 +47,12 @@
     <t>Time Dimension</t>
   </si>
   <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
-    <t xml:space="preserve">DSD for Global Aquaculture Production </t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>CL_FI_SYMBOL</t>
   </si>
   <si>
-    <t>QUANTITY_SYMBOL</t>
-  </si>
-  <si>
-    <t>VALUE_SYMBOL</t>
-  </si>
-  <si>
     <t>UN_CODE</t>
   </si>
   <si>
@@ -107,9 +86,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -119,15 +95,9 @@
     <t>CL_FI_SPECIES_GROUPS</t>
   </si>
   <si>
-    <t>3ALPHA_CODE</t>
-  </si>
-  <si>
     <t>Aquaculture Environment</t>
   </si>
   <si>
-    <t>PRODUCTION_AREA</t>
-  </si>
-  <si>
     <t>FAO major fishing area</t>
   </si>
   <si>
@@ -137,9 +107,6 @@
     <t>ASFIS species</t>
   </si>
   <si>
-    <t>Value (USD 1000)</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -155,31 +122,52 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CL_FI_UNIT</t>
-  </si>
-  <si>
     <t>Quantity unit</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>QUANTITY_UNIT</t>
-  </si>
-  <si>
-    <t>ENVIRONMENT</t>
-  </si>
-  <si>
-    <t>CL_FI_ENVIRONMENT</t>
-  </si>
-  <si>
     <t>CL_FI_WATERAREA_GROUPS</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>SPECIES.ALPHA_3_CODE</t>
+  </si>
+  <si>
+    <t>COUNTRY.UN_CODE</t>
+  </si>
+  <si>
+    <t>AREA.CODE</t>
+  </si>
+  <si>
+    <t>FSJ_UNIT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>3A_CODE</t>
+  </si>
+  <si>
+    <t>DSD for Global Aquaculture Production - Quantity</t>
+  </si>
+  <si>
+    <t>DSD for Global Aquaculture Production - Value</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT.ALPHA_2_CODE</t>
+  </si>
+  <si>
+    <t>CL_FI_PRODENVIRONMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="29" style="6" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -602,212 +590,354 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
+++ b/FAO-dsd/DSD_FI_AQUACULTURE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfao-my.sharepoint.com/personal/sara_montanaro_fao_org/Documents/DISSEMINATED_CSV/2024/Aquaculture_2024.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4D2C39998A35DA07C402B023EE941DA8EA94194C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1629FBB-EAC5-4B69-A1DE-05894EC62814}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5745" windowHeight="4425" tabRatio="519"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>CL_FI_SYMBOL</t>
-  </si>
-  <si>
     <t>UN_CODE</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -162,12 +157,18 @@
   </si>
   <si>
     <t>CL_FI_PRODENVIRONMENT</t>
+  </si>
+  <si>
+    <t>CL_FI_SYMBOL_SDMX</t>
+  </si>
+  <si>
+    <t>FAO SDMX statistical symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,25 +250,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,8 +268,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -292,7 +285,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -305,6 +298,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,363 +578,358 @@
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="17" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>29</v>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
